--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Entitat</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Tutoria100</t>
+  </si>
+  <si>
+    <t>Tutoria110</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1524,84 @@
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
     </row>
-    <row r="11" ht="14.25"/>
+    <row r="11" ht="63.75">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45606.584502314814</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45621</v>
+      </c>
+      <c r="H11" s="9">
+        <v>45621</v>
+      </c>
+      <c r="I11" s="10">
+        <v>25569.479166666668</v>
+      </c>
+      <c r="J11" s="10">
+        <v>25569.5625</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="8"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+    </row>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>

--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Entitat</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Tutoria110</t>
+  </si>
+  <si>
+    <t>Tutoria120</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1602,7 +1605,84 @@
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
     </row>
-    <row r="12" ht="14.25"/>
+    <row r="12" ht="63.75">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9">
+        <v>45606.584502314814</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45622</v>
+      </c>
+      <c r="H12" s="9">
+        <v>45622</v>
+      </c>
+      <c r="I12" s="10">
+        <v>25569.479166666668</v>
+      </c>
+      <c r="J12" s="10">
+        <v>25569.5625</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="8"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+    </row>
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25"/>

--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Entitat</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Tutoria120</t>
+  </si>
+  <si>
+    <t>Tutoria125</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1683,7 +1686,84 @@
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
     </row>
-    <row r="13" ht="14.25"/>
+    <row r="13" ht="63.75">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9">
+        <v>45606.584502314814</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45623</v>
+      </c>
+      <c r="H13" s="9">
+        <v>45623</v>
+      </c>
+      <c r="I13" s="10">
+        <v>25569.479166666668</v>
+      </c>
+      <c r="J13" s="10">
+        <v>25569.5625</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="8"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+    </row>
     <row r="14" ht="14.25"/>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25"/>

--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -1764,7 +1764,84 @@
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
     </row>
-    <row r="14" ht="14.25"/>
+    <row r="14" ht="63.75">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45606.584502314814</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45624</v>
+      </c>
+      <c r="H14" s="9">
+        <v>45624</v>
+      </c>
+      <c r="I14" s="10">
+        <v>25569.479166666668</v>
+      </c>
+      <c r="J14" s="10">
+        <v>25569.5625</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="8"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+    </row>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25"/>

--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Entitat</t>
   </si>
@@ -157,12 +157,6 @@
   </si>
   <si>
     <t>Tutoria110</t>
-  </si>
-  <si>
-    <t>Tutoria120</t>
-  </si>
-  <si>
-    <t>Tutoria125</t>
   </si>
 </sst>
 </file>
@@ -1608,240 +1602,9 @@
       <c r="AG11" s="12"/>
       <c r="AH11" s="12"/>
     </row>
-    <row r="12" ht="63.75">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G12" s="9">
-        <v>45622</v>
-      </c>
-      <c r="H12" s="9">
-        <v>45622</v>
-      </c>
-      <c r="I12" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J12" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="8"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-    </row>
-    <row r="13" ht="63.75">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G13" s="9">
-        <v>45623</v>
-      </c>
-      <c r="H13" s="9">
-        <v>45623</v>
-      </c>
-      <c r="I13" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J13" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="8"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-    </row>
-    <row r="14" ht="63.75">
-      <c r="A14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G14" s="9">
-        <v>45624</v>
-      </c>
-      <c r="H14" s="9">
-        <v>45624</v>
-      </c>
-      <c r="I14" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J14" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="8"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-    </row>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
     <row r="15" ht="14.25"/>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25"/>
@@ -1857,9 +1620,6 @@
     <row r="27" ht="14.25"/>
     <row r="28" ht="14.25"/>
     <row r="29" ht="14.25"/>
-    <row r="30" ht="14.25"/>
-    <row r="31" ht="14.25"/>
-    <row r="32" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Entitat</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Tutoria53</t>
-  </si>
-  <si>
-    <t>Tutoria100</t>
-  </si>
-  <si>
-    <t>Tutoria110</t>
   </si>
 </sst>
 </file>
@@ -767,7 +761,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1446,162 +1440,8 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
     </row>
-    <row r="10" ht="63.75">
-      <c r="A10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G10" s="9">
-        <v>45620</v>
-      </c>
-      <c r="H10" s="9">
-        <v>45620</v>
-      </c>
-      <c r="I10" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J10" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-    </row>
-    <row r="11" ht="63.75">
-      <c r="A11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G11" s="9">
-        <v>45621</v>
-      </c>
-      <c r="H11" s="9">
-        <v>45621</v>
-      </c>
-      <c r="I11" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J11" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="8"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-    </row>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
     <row r="14" ht="14.25"/>
@@ -1618,8 +1458,6 @@
     <row r="25" ht="14.25"/>
     <row r="26" ht="14.25"/>
     <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/xlsx/file.xlsx
+++ b/xlsx/file.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Entitat</t>
   </si>
@@ -132,22 +132,10 @@
     <t>Definitiu</t>
   </si>
   <si>
-    <t>Tutoria</t>
+    <t>Tutoria2</t>
   </si>
   <si>
     <t>Virtual</t>
-  </si>
-  <si>
-    <t>Tutoria2</t>
-  </si>
-  <si>
-    <t>Tutoria22</t>
-  </si>
-  <si>
-    <t>Presencial</t>
-  </si>
-  <si>
-    <t>Tutoria33</t>
   </si>
   <si>
     <t>Tutoria53</t>
@@ -761,7 +749,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -971,6 +959,18 @@
         <v>36</v>
       </c>
       <c r="V3" s="8"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
     </row>
     <row r="4" ht="63.75">
       <c r="A4" s="7" t="s">
@@ -983,25 +983,25 @@
         <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>26</v>
       </c>
       <c r="F4" s="9">
-        <v>45604.584502314683</v>
+        <v>45606.584502314814</v>
       </c>
       <c r="G4" s="9">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="H4" s="9">
-        <v>45605</v>
+        <v>45606</v>
       </c>
       <c r="I4" s="10">
-        <v>25569.4375</v>
+        <v>25569.479166666668</v>
       </c>
       <c r="J4" s="10">
-        <v>25569.479166666511</v>
+        <v>25569.5625</v>
       </c>
       <c r="K4" s="8" t="s">
         <v>27</v>
@@ -1061,7 +1061,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>26</v>
@@ -1070,16 +1070,16 @@
         <v>45606.584502314814</v>
       </c>
       <c r="G5" s="9">
-        <v>45606</v>
+        <v>45619</v>
       </c>
       <c r="H5" s="9">
-        <v>45606</v>
+        <v>45619</v>
       </c>
       <c r="I5" s="10">
-        <v>25569.4375</v>
+        <v>25569.479166666668</v>
       </c>
       <c r="J5" s="10">
-        <v>25569.479166666511</v>
+        <v>25569.5625</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>27</v>
@@ -1091,7 +1091,7 @@
         <v>29</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O5" s="11" t="s">
         <v>31</v>
@@ -1128,318 +1128,10 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
     </row>
-    <row r="6" ht="63.75">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G6" s="9">
-        <v>45606</v>
-      </c>
-      <c r="H6" s="9">
-        <v>45606</v>
-      </c>
-      <c r="I6" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J6" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-    </row>
-    <row r="7" ht="63.75">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G7" s="9">
-        <v>45608</v>
-      </c>
-      <c r="H7" s="9">
-        <v>45608</v>
-      </c>
-      <c r="I7" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J7" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V7" s="8"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-    </row>
-    <row r="8" ht="63.75">
-      <c r="A8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G8" s="9">
-        <v>45609</v>
-      </c>
-      <c r="H8" s="9">
-        <v>45609</v>
-      </c>
-      <c r="I8" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J8" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V8" s="8"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-    </row>
-    <row r="9" ht="63.75">
-      <c r="A9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9">
-        <v>45606.584502314814</v>
-      </c>
-      <c r="G9" s="9">
-        <v>45619</v>
-      </c>
-      <c r="H9" s="9">
-        <v>45619</v>
-      </c>
-      <c r="I9" s="10">
-        <v>25569.479166666668</v>
-      </c>
-      <c r="J9" s="10">
-        <v>25569.5625</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="8"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25"/>
+    <row r="8" ht="14.25"/>
+    <row r="9" ht="14.25"/>
     <row r="10" ht="14.25"/>
     <row r="11" ht="14.25"/>
     <row r="12" ht="14.25"/>
@@ -1454,10 +1146,6 @@
     <row r="21" ht="14.25"/>
     <row r="22" ht="14.25"/>
     <row r="23" ht="14.25"/>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25"/>
-    <row r="26" ht="14.25"/>
-    <row r="27" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
